--- a/HTML5-CSS3-Para-Iniciantes/Tabelas.xlsx
+++ b/HTML5-CSS3-Para-Iniciantes/Tabelas.xlsx
@@ -24,85 +24,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Selector</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Example description</t>
-  </si>
-  <si>
-    <t>[attribute]</t>
-  </si>
-  <si>
-    <t>[target]</t>
-  </si>
-  <si>
-    <t>Selects all elements with a target attribute</t>
-  </si>
-  <si>
-    <t>[attribute=value]t</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [target=_blank]</t>
-  </si>
-  <si>
-    <t>Selects all elements with target="_blank"</t>
-  </si>
-  <si>
-    <t>[attribute~=value]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [title~=flower]</t>
-  </si>
-  <si>
-    <t>Selects all elements with a title attribute containing the word "flower"</t>
-  </si>
-  <si>
-    <t>[lang|=en]</t>
-  </si>
-  <si>
-    <t>Selects all elements with a lang attribute value starting with "en"</t>
-  </si>
-  <si>
-    <t>[attribute^=value]</t>
-  </si>
-  <si>
-    <t>a[href^="https"]</t>
-  </si>
-  <si>
-    <t>Selects every &lt;a&gt; element whose href attribute value begins with "https"</t>
-  </si>
-  <si>
-    <t>[attribute$=value]</t>
-  </si>
-  <si>
-    <t>a[href$=".pdf"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selects every &lt;a&gt; element whose href attribute value ends with ".pdf</t>
-  </si>
-  <si>
-    <t>[attribute*=value]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> a[href*="w3schools"]</t>
-  </si>
-  <si>
-    <t>[[attribute|=value]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selects every &lt;a&gt; element whose href attribute value contains the substring "w3schools"</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>p.test</t>
+  </si>
+  <si>
+    <t>p#demo</t>
+  </si>
+  <si>
+    <t>#demo</t>
+  </si>
+  <si>
+    <t>Specificity Value</t>
+  </si>
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>.test</t>
+  </si>
+  <si>
+    <t>p.test1.test2</t>
+  </si>
+  <si>
+    <t>#navbar p#demo</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>&lt;p style="color:pink;"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 + 10</t>
+  </si>
+  <si>
+    <t>1 + 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 + 10 + 10</t>
+  </si>
+  <si>
+    <t>100 + 1 + 100</t>
+  </si>
+  <si>
+    <t>0 (the universal selector is ignored)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +104,26 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -258,10 +260,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -287,15 +290,199 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -329,178 +516,6 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -515,12 +530,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C10" totalsRowShown="0" headerRowDxfId="0" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:C10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C35" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C35"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Selector" dataDxfId="3"/>
-    <tableColumn id="2" name="example" dataDxfId="2"/>
-    <tableColumn id="3" name="Example description" dataDxfId="1"/>
+    <tableColumn id="1" name="Selector" dataDxfId="2"/>
+    <tableColumn id="2" name="Specificity Value" dataDxfId="1"/>
+    <tableColumn id="3" name="Calculation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -789,15 +804,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:C8"/>
+      <selection activeCell="C10" sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.140625" customWidth="1"/>
   </cols>
@@ -807,93 +822,239 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B4" s="5">
+        <v>101</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B6" s="9">
+        <v>100</v>
+      </c>
+      <c r="C6" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B7" s="9">
+        <v>10</v>
+      </c>
+      <c r="C7" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B8" s="5">
+        <v>21</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="B9" s="5">
+        <v>201</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="11"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="11" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/HTML5-CSS3-Para-Iniciantes/Tabelas.xlsx
+++ b/HTML5-CSS3-Para-Iniciantes/Tabelas.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Selector</t>
   </si>
@@ -78,13 +79,76 @@
   </si>
   <si>
     <t>0 (the universal selector is ignored)</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Relative Lengths</t>
+  </si>
+  <si>
+    <t>em</t>
+  </si>
+  <si>
+    <t>Relative to the font-size of the element (2em means 2 times the size of the current font)</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>Relative to the x-height of the current font (rarely used)</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>Relative to the width of the "0" (zero)</t>
+  </si>
+  <si>
+    <t>rem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Relative to font-size of the root element</t>
+  </si>
+  <si>
+    <t>vw</t>
+  </si>
+  <si>
+    <t>Relative to 1% of the width of the viewport*</t>
+  </si>
+  <si>
+    <t>vh</t>
+  </si>
+  <si>
+    <t>Relative to 1% of the height of the viewport*</t>
+  </si>
+  <si>
+    <t>vmin</t>
+  </si>
+  <si>
+    <t>Relative to 1% of viewport's* smaller dimension</t>
+  </si>
+  <si>
+    <t>vmax</t>
+  </si>
+  <si>
+    <t>Relative to 1% of viewport's* larger dimension</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Relative to the parent element</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +189,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -264,7 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -305,12 +382,130 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -442,6 +637,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0"/>
@@ -475,13 +677,6 @@
           <bgColor theme="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -530,12 +725,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C35" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C35" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:C35"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Selector" dataDxfId="2"/>
-    <tableColumn id="2" name="Specificity Value" dataDxfId="1"/>
-    <tableColumn id="3" name="Calculation" dataDxfId="0"/>
+    <tableColumn id="1" name="Selector" dataDxfId="6"/>
+    <tableColumn id="2" name="Specificity Value" dataDxfId="5"/>
+    <tableColumn id="3" name="Calculation" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A2:B15" totalsRowShown="0" headerRowDxfId="0" dataDxfId="3">
+  <autoFilter ref="A2:B15"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Unit" dataDxfId="2"/>
+    <tableColumn id="2" name="Description" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -806,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,4 +1269,148 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>